--- a/data/ramp/Tier3.xlsx
+++ b/data/ramp/Tier3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="AU2" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="AV2" t="n">
         <v>1380</v>
@@ -1001,10 +1001,10 @@
         <v>540</v>
       </c>
       <c r="AU3" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="AV3" t="n">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>1080</v>
       </c>
       <c r="AV4" t="n">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>240</v>
@@ -1324,13 +1324,13 @@
         <v>360</v>
       </c>
       <c r="AT5" t="n">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="AU5" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>120</v>
@@ -1484,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT6" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="AU6" t="n">
-        <v>1140</v>
+        <v>720</v>
       </c>
       <c r="AV6" t="n">
         <v>1380</v>
       </c>
       <c r="AW6" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.35</v>
@@ -1647,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1080</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>1260</v>
+        <v>1020</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -1682,37 +1682,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fridge</t>
+          <t>iron_box</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1440</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1729,106 +1729,432 @@
         <v>2</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1020</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tier3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>100</v>
       </c>
-      <c r="S8" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>299</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>electric_ketle</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>360</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1320</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tier3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pressure_cooker</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="W8" t="n">
-        <v>20</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1201</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1440</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>479</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>480</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AT10" t="n">
         <v>1200</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1440</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
